--- a/Stocks/OIL.xlsx
+++ b/Stocks/OIL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>329.36666666666662</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>285.61554612305883</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>279.70680094359687</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>48.544216756411572</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>0.84999999999996589</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>6.0499999999999545</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.14049586776859047</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>280.4045611323798</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>0.92890790089290931</v>
       </c>
       <c r="Y67">
         <v>-0.98715290021551749</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="D83">
+        <v>288.8</v>
+      </c>
+      <c r="E83">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="F83">
+        <v>288.10000000000002</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>286.93333333333334</v>
+      </c>
+      <c r="H83">
+        <v>283.37664793212059</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>285.58116543403878</v>
+      </c>
+      <c r="K83">
+        <v>277.55862917599632</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>65.983397999506792</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>4.2000000000000455</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>4.9000000000000341</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.85714285714286043</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>282.11959268261546</v>
+      </c>
+      <c r="W83">
+        <v>281.66748698161786</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>0.45210570099760616</v>
+      </c>
+      <c r="Y83">
+        <v>0.26804765470842029</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="D84">
+        <v>291.75</v>
+      </c>
+      <c r="E84">
+        <v>284.3</v>
+      </c>
+      <c r="F84">
+        <v>289</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>288.34999999999997</v>
+      </c>
+      <c r="H84">
+        <v>285.86332396606031</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>286.95201755980793</v>
+      </c>
+      <c r="K84">
+        <v>279.05671158133049</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>67.591077157087341</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>4.6999999999999886</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>7.4499999999999886</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.63087248322147593</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>283.17811688529002</v>
+      </c>
+      <c r="W84">
+        <v>282.2106360940906</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>0.96748079119942076</v>
+      </c>
+      <c r="Y84">
+        <v>0.40793428200662041</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>289.05</v>
+      </c>
+      <c r="D85">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="E85">
+        <v>289.05</v>
+      </c>
+      <c r="F85">
+        <v>292.10000000000002</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>293.18333333333334</v>
+      </c>
+      <c r="H85">
+        <v>289.52332864969685</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>289.4960136576284</v>
+      </c>
+      <c r="K85">
+        <v>281.27744234103483</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>73.070826304100521</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>3.0500000000000114</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>9.3499999999999659</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.32620320855615215</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>284.55071428755309</v>
+      </c>
+      <c r="W85">
+        <v>282.94318156860243</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>1.6075327189506652</v>
+      </c>
+      <c r="Y85">
+        <v>0.64785396939542939</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>293.89999999999998</v>
+      </c>
+      <c r="D86">
+        <v>296</v>
+      </c>
+      <c r="E86">
+        <v>281.7</v>
+      </c>
+      <c r="F86">
+        <v>286</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>287.90000000000003</v>
+      </c>
+      <c r="H86">
+        <v>288.71166432484847</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>290.94134395593318</v>
+      </c>
+      <c r="K86">
+        <v>281.37134404302708</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>51.607848061389781</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>4.3000000000000114</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>14.300000000000011</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.30069930069930123</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>284.77368132023724</v>
+      </c>
+      <c r="W86">
+        <v>283.16961256352079</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>1.6040687567164582</v>
+      </c>
+      <c r="Y86">
+        <v>0.83909692685963511</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>287.95</v>
+      </c>
+      <c r="D87">
+        <v>296.35000000000002</v>
+      </c>
+      <c r="E87">
+        <v>286.3</v>
+      </c>
+      <c r="F87">
+        <v>295.5</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>292.7166666666667</v>
+      </c>
+      <c r="H87">
+        <v>290.71416549575758</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>292.14326752128136</v>
+      </c>
+      <c r="K87">
+        <v>282.46660092235442</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>69.212415717606433</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>9.1999999999999886</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>10.050000000000011</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.91542288557213713</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>286.42388419404688</v>
+      </c>
+      <c r="W87">
+        <v>284.08297459585259</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>2.3409095981942869</v>
+      </c>
+      <c r="Y87">
+        <v>1.1394594611265654</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>297.8</v>
+      </c>
+      <c r="D88">
+        <v>310</v>
+      </c>
+      <c r="E88">
+        <v>294.2</v>
+      </c>
+      <c r="F88">
+        <v>308.60000000000002</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>304.26666666666671</v>
+      </c>
+      <c r="H88">
+        <v>297.49041608121217</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>296.11143029432992</v>
+      </c>
+      <c r="K88">
+        <v>285.07402293960899</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>81.077765618228227</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>14.400000000000034</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>15.800000000000011</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.91139240506329267</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V88">
+        <v>289.83559431803968</v>
+      </c>
+      <c r="W88">
+        <v>285.89905055171539</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>3.9365437663242915</v>
+      </c>
+      <c r="Y88">
+        <v>1.6988763221661105</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="35"/>
+        <v>296</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="36"/>
+        <v>300.25</v>
+      </c>
+      <c r="AF88">
+        <f t="shared" si="37"/>
+        <v>302.10000000000002</v>
+      </c>
+      <c r="AG88">
+        <f t="shared" si="38"/>
+        <v>303.95</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>309</v>
+      </c>
+      <c r="D89">
+        <v>312.89999999999998</v>
+      </c>
+      <c r="E89">
+        <v>305.45</v>
+      </c>
+      <c r="F89">
+        <v>307.05</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>308.46666666666664</v>
+      </c>
+      <c r="H89">
+        <v>302.97854137393938</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>299.84222356225661</v>
+      </c>
+      <c r="K89">
+        <v>289.6020178419181</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>76.705544584730916</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>7.4499999999999886</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.21476510067114432</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>292.48396442295666</v>
+      </c>
+      <c r="W89">
+        <v>287.46578754788464</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>5.0181768750720153</v>
+      </c>
+      <c r="Y89">
+        <v>2.3627364327472913</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>307</v>
+      </c>
+      <c r="D90">
+        <v>312.35000000000002</v>
+      </c>
+      <c r="E90">
+        <v>306.89999999999998</v>
+      </c>
+      <c r="F90">
+        <v>309.5</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>309.58333333333331</v>
+      </c>
+      <c r="H90">
+        <v>306.28093735363632</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>302.62172943731071</v>
+      </c>
+      <c r="K90">
+        <v>293.44601387704739</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>78.948533335164072</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>5.4500000000000455</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.47706422018348643</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>295.10181605019409</v>
+      </c>
+      <c r="W90">
+        <v>289.09795143322651</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>6.0038646169675758</v>
+      </c>
+      <c r="Y90">
+        <v>3.090962069591348</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="D91">
+        <v>312</v>
+      </c>
+      <c r="E91">
+        <v>304</v>
+      </c>
+      <c r="F91">
+        <v>305.14999999999998</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>307.05</v>
+      </c>
+      <c r="H91">
+        <v>306.66546867681814</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>304.70578956235278</v>
+      </c>
+      <c r="K91">
+        <v>295.79134412659243</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>65.047730910741066</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.1499999999999773</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.14374999999999716</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>296.64769050401037</v>
+      </c>
+      <c r="W91">
+        <v>290.28699206780232</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>6.3606984362080539</v>
+      </c>
+      <c r="Y91">
+        <v>3.7449093429146894</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>307.5</v>
+      </c>
+      <c r="D92">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="E92">
+        <v>305.5</v>
+      </c>
+      <c r="F92">
+        <v>314.2</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>313.59999999999997</v>
+      </c>
+      <c r="H92">
+        <v>310.13273433840902</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>308.3489474373855</v>
+      </c>
+      <c r="K92">
+        <v>297.94882320957191</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>76.025510518644595</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>8.6999999999999886</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>15.600000000000023</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.55769230769230616</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>299.34804581108568</v>
+      </c>
+      <c r="W92">
+        <v>292.05832598870586</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>7.2897198223798227</v>
+      </c>
+      <c r="Y92">
+        <v>4.4538714388077159</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>312.2</v>
+      </c>
+      <c r="D93">
+        <v>333</v>
+      </c>
+      <c r="E93">
+        <v>312.2</v>
+      </c>
+      <c r="F93">
+        <v>330.95</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>325.38333333333338</v>
+      </c>
+      <c r="H93">
+        <v>317.75803383587117</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>313.82695911796651</v>
+      </c>
+      <c r="K93">
+        <v>301.11575138522261</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>86.114893298068566</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>18.75</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>20.800000000000011</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.90144230769230715</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>304.20988491707249</v>
+      </c>
+      <c r="W93">
+        <v>294.9391907302832</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>9.2706941867892851</v>
+      </c>
+      <c r="Y93">
+        <v>5.4172359884040295</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>314.55</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>320.15000000000003</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>322.60000000000002</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>325.05</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>334</v>
+      </c>
+      <c r="D94">
+        <v>334.9</v>
+      </c>
+      <c r="E94">
+        <v>324.2</v>
+      </c>
+      <c r="F94">
+        <v>330</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>329.7</v>
+      </c>
+      <c r="H94">
+        <v>323.72901691793561</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>318.50985709175171</v>
+      </c>
+      <c r="K94">
+        <v>306.24558441072867</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>83.620043372071621</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>5.8000000000000114</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>10.699999999999989</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.54205607476635675</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>308.17759492983055</v>
+      </c>
+      <c r="W94">
+        <v>297.53628771322519</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>10.641307216605355</v>
+      </c>
+      <c r="Y94">
+        <v>6.4620502340442947</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>330.5</v>
+      </c>
+      <c r="D95">
+        <v>334</v>
+      </c>
+      <c r="E95">
+        <v>317.10000000000002</v>
+      </c>
+      <c r="F95">
+        <v>323.10000000000002</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>324.73333333333335</v>
+      </c>
+      <c r="H95">
+        <v>324.23117512563448</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>321.95211107136242</v>
+      </c>
+      <c r="K95">
+        <v>308.6576767639001</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>66.206019525834762</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>16.899999999999977</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.35502958579881705</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>310.47334955601048</v>
+      </c>
+      <c r="W95">
+        <v>299.42989603076404</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>11.043453525246434</v>
+      </c>
+      <c r="Y95">
+        <v>7.3783308922847226</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>320.89999999999998</v>
+      </c>
+      <c r="D96">
+        <v>324.75</v>
+      </c>
+      <c r="E96">
+        <v>309</v>
+      </c>
+      <c r="F96">
+        <v>317.35000000000002</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>317.03333333333336</v>
+      </c>
+      <c r="H96">
+        <v>320.63225422948392</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>322.57386416661524</v>
+      </c>
+      <c r="K96">
+        <v>308.73374859414452</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>54.404178278672134</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>8.3500000000000227</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>15.75</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.53015873015873161</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>311.5312957781627</v>
+      </c>
+      <c r="W96">
+        <v>300.75731113959631</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>10.77398463856639</v>
+      </c>
+      <c r="Y96">
+        <v>8.0574616415410567</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>322.05</v>
+      </c>
+      <c r="D97">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="E97">
+        <v>316.95</v>
+      </c>
+      <c r="F97">
+        <v>323.05</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>322.5333333333333</v>
+      </c>
+      <c r="H97">
+        <v>321.58279378140861</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>323.69078324070074</v>
+      </c>
+      <c r="K97">
+        <v>310.55958223989018</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>62.653515256862782</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>6.1000000000000227</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>10.650000000000034</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.57276995305164347</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>313.30340411998384</v>
+      </c>
+      <c r="W97">
+        <v>302.40862142555216</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>10.894782694431683</v>
+      </c>
+      <c r="Y97">
+        <v>8.6249258521191816</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>325</v>
+      </c>
+      <c r="D98">
+        <v>328.8</v>
+      </c>
+      <c r="E98">
+        <v>319.05</v>
+      </c>
+      <c r="F98">
+        <v>326</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>324.61666666666667</v>
+      </c>
+      <c r="H98">
+        <v>323.09973022403767</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>324.82616474276722</v>
+      </c>
+      <c r="K98">
+        <v>312.44634174213678</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>66.566700521184316</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>6.9499999999999886</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>9.75</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.71282051282051162</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>315.25672656306324</v>
+      </c>
+      <c r="W98">
+        <v>304.1561309495853</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>11.100595613477935</v>
+      </c>
+      <c r="Y98">
+        <v>9.120059804390932</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>325.05</v>
+      </c>
+      <c r="D99">
+        <v>331</v>
+      </c>
+      <c r="E99">
+        <v>322.35000000000002</v>
+      </c>
+      <c r="F99">
+        <v>330</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>327.78333333333336</v>
+      </c>
+      <c r="H99">
+        <v>325.44153177868554</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>326.19812813326337</v>
+      </c>
+      <c r="K99">
+        <v>314.64715468832861</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>71.608809928991604</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>7.6499999999999773</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>8.6499999999999773</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.88439306358381475</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>317.52492247643812</v>
+      </c>
+      <c r="W99">
+        <v>306.0704916199864</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>11.454430856451722</v>
+      </c>
+      <c r="Y99">
+        <v>9.5869340148030897</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>330</v>
+      </c>
+      <c r="D100">
+        <v>331.15</v>
+      </c>
+      <c r="E100">
+        <v>323.95</v>
+      </c>
+      <c r="F100">
+        <v>328</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>327.7</v>
+      </c>
+      <c r="H100">
+        <v>326.57076588934274</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>327.29854410364931</v>
+      </c>
+      <c r="K100">
+        <v>316.71445364647781</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>65.440584808747573</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>4.0500000000000114</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.56250000000000244</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>319.13647286467841</v>
+      </c>
+      <c r="W100">
+        <v>307.69489964813556</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>11.441573216542849</v>
+      </c>
+      <c r="Y100">
+        <v>9.9578618551510409</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>328</v>
+      </c>
+      <c r="D101">
+        <v>330.2</v>
+      </c>
+      <c r="E101">
+        <v>322.05</v>
+      </c>
+      <c r="F101">
+        <v>326.39999999999998</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>326.21666666666664</v>
+      </c>
+      <c r="H101">
+        <v>326.39371627800472</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>327.94331208061612</v>
+      </c>
+      <c r="K101">
+        <v>317.90013061392716</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>60.250720488961448</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>4.3499999999999659</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>8.1499999999999773</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.53374233128834081</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>320.25393857780483</v>
+      </c>
+      <c r="W101">
+        <v>309.08046263716255</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>11.173475940642277</v>
+      </c>
+      <c r="Y101">
+        <v>10.200984672249287</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>327.9</v>
+      </c>
+      <c r="D102">
+        <v>332.65</v>
+      </c>
+      <c r="E102">
+        <v>321.5</v>
+      </c>
+      <c r="F102">
+        <v>328.9</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>327.68333333333334</v>
+      </c>
+      <c r="H102">
+        <v>327.038524805669</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>328.98924272936807</v>
+      </c>
+      <c r="K102">
+        <v>318.70010158861004</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>65.581926117399604</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>7.3999999999999773</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>11.149999999999977</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.66367713004484241</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>321.58410187352717</v>
+      </c>
+      <c r="W102">
+        <v>310.54857651589123</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>11.035525357635947</v>
+      </c>
+      <c r="Y102">
+        <v>10.367892809326619</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>325.3</v>
+      </c>
+      <c r="D103">
+        <v>333.75</v>
+      </c>
+      <c r="E103">
+        <v>321.2</v>
+      </c>
+      <c r="F103">
+        <v>332</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>328.98333333333335</v>
+      </c>
+      <c r="H103">
+        <v>328.01092906950117</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J103">
+        <v>330.04718878950848</v>
+      </c>
+      <c r="K103">
+        <v>319.25563456891894</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N103">
+        <v>71.505557612829236</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>10.800000000000011</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>12.550000000000011</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.86055776892430291</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V103">
+        <v>323.1865477391384</v>
+      </c>
+      <c r="W103">
+        <v>312.13757084804746</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>11.048976891090945</v>
+      </c>
+      <c r="Y103">
+        <v>10.504109625679485</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>334</v>
+      </c>
+      <c r="D104">
+        <v>350</v>
+      </c>
+      <c r="E104">
+        <v>332.6</v>
+      </c>
+      <c r="F104">
+        <v>349.7</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>344.09999999999997</v>
+      </c>
+      <c r="H104">
+        <v>336.05546453475057</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>334.48114683628438</v>
+      </c>
+      <c r="K104">
+        <v>322.2210491091592</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N104">
+        <v>87.212776771382678</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>17.099999999999966</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>17.399999999999977</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.98275862068965447</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V104">
+        <v>327.26554039465555</v>
+      </c>
+      <c r="W104">
+        <v>314.91997300745135</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>12.345567387204198</v>
+      </c>
+      <c r="Y104">
+        <v>10.872401177984427</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="35"/>
+        <v>334.6</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="36"/>
+        <v>339.25</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="37"/>
+        <v>341.3</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="38"/>
+        <v>343.35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>349.7</v>
+      </c>
+      <c r="D105">
+        <v>356.1</v>
+      </c>
+      <c r="E105">
+        <v>345.1</v>
+      </c>
+      <c r="F105">
+        <v>350</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>350.40000000000003</v>
+      </c>
+      <c r="H105">
+        <v>343.2277322673753</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J105">
+        <v>339.28533642822117</v>
+      </c>
+      <c r="K105">
+        <v>327.30526041823492</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N105">
+        <v>87.360391860158501</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>4.8999999999999773</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.44545454545454338</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>330.76314956470856</v>
+      </c>
+      <c r="W105">
+        <v>317.51849352541791</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>13.244656039290646</v>
+      </c>
+      <c r="Y105">
+        <v>11.34685215024567</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>349.9</v>
+      </c>
+      <c r="D106">
+        <v>354.95</v>
+      </c>
+      <c r="E106">
+        <v>335.8</v>
+      </c>
+      <c r="F106">
+        <v>344.7</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>345.15000000000003</v>
+      </c>
+      <c r="H106">
+        <v>344.18886613368767</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>342.76637277750535</v>
+      </c>
+      <c r="K106">
+        <v>329.19298032529383</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N106">
+        <v>69.613815860618885</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>8.8999999999999773</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>19.149999999999977</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.46475195822454246</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>332.90728040090721</v>
+      </c>
+      <c r="W106">
+        <v>319.53193844946105</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>13.37534195144616</v>
+      </c>
+      <c r="Y106">
+        <v>11.752550110485767</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>345.95</v>
+      </c>
+      <c r="D107">
+        <v>354.95</v>
+      </c>
+      <c r="E107">
+        <v>340.1</v>
+      </c>
+      <c r="F107">
+        <v>353.65</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>349.56666666666661</v>
+      </c>
+      <c r="H107">
+        <v>346.87776640017717</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>345.47384549361527</v>
+      </c>
+      <c r="K107">
+        <v>331.61676247522854</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N107">
+        <v>78.733109109379569</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>13.549999999999955</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>14.849999999999966</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.91245791245791152</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V107">
+        <v>336.09846803153687</v>
+      </c>
+      <c r="W107">
+        <v>322.05920226801948</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>14.039265763517392</v>
+      </c>
+      <c r="Y107">
+        <v>12.209893241092093</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="35"/>
+        <v>341.8</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="36"/>
+        <v>345.75</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="37"/>
+        <v>347.5</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="38"/>
+        <v>349.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
